--- a/dir/Selenium Python.xlsx
+++ b/dir/Selenium Python.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fors\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fors\PycharmProjects\Python-selenium\dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61993668-EC85-4400-8DAD-67980FBB4B14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7A88D5-098D-46AB-9167-FB9BF0FC5774}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
-    <sheet name="Функции" sheetId="2" r:id="rId2"/>
-    <sheet name="Переменные" sheetId="3" r:id="rId3"/>
-    <sheet name="HTML Attribute Reference" sheetId="4" r:id="rId4"/>
-    <sheet name="Exeption" sheetId="5" r:id="rId5"/>
-    <sheet name="expected_conditions" sheetId="6" r:id="rId6"/>
+    <sheet name="Driver" sheetId="7" r:id="rId2"/>
+    <sheet name="Функции" sheetId="2" r:id="rId3"/>
+    <sheet name="Переменные" sheetId="3" r:id="rId4"/>
+    <sheet name="HTML Attribute Reference" sheetId="4" r:id="rId5"/>
+    <sheet name="Exeption" sheetId="5" r:id="rId6"/>
+    <sheet name="expected_conditions" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="511">
   <si>
     <t>import time</t>
   </si>
@@ -1836,13 +1837,776 @@
   </si>
   <si>
     <t>Ожидание</t>
+  </si>
+  <si>
+    <t>conftest.py</t>
+  </si>
+  <si>
+    <t>import pytest
+from selenium import webdriver
+@pytest.fixture(scope="function")
+def browser():
+    print("\nstart browser for test..")
+    browser = webdriver.Chrome()
+    yield browser
+    print("\nquit browser..")
+    browser.quit()</t>
+  </si>
+  <si>
+    <t>И будут обращение к этому файлу</t>
+  </si>
+  <si>
+    <t>Создать в карне проекта файл(текстуру)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>pytest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">selenium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>webdriver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>pytest_addoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(parser):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    parser.addoption(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'--browser_name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'store'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>None,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Choose browser: chrome or firefox"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@pytest.fixture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"function"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>browser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(request):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    browser_name = request.config.getoption(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"browser_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF72737A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">browser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>None</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">browser_name == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"chrome"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>start chrome browser for test.."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        browser = webdriver.Chrome()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">elif </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">browser_name == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"firefox"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>start firefox browser for test.."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        browser = webdriver.Firefox()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">raise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>pytest.UsageError(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"--browser_name should be chrome or firefox"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">yield </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>browser</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>quit browser.."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    browser.quit()</t>
+  </si>
+  <si>
+    <t>А так нужно делать уже в для 2 и более браузеров.</t>
+  </si>
+  <si>
+    <t>Запуск выглядит так:</t>
+  </si>
+  <si>
+    <t>pytest -v --tb=line --reruns 1 --browser_name=chrome test_rerun.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,6 +2742,61 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC66D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA4926"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBBB529"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF72737A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8888C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2023,7 +2842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2169,6 +2988,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2177,7 +3011,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2272,11 +3106,42 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2619,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2763,70 +3628,70 @@
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" customHeight="1">
       <c r="A16" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="30.75" customHeight="1">
       <c r="A17" t="s">
         <v>458</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>459</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>460</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>465</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="1:4" ht="30.75" customHeight="1">
       <c r="A22" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="24" spans="1:4" ht="15" thickBot="1">
@@ -2909,6 +3774,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E52CD0-01AE-4277-B204-742D600B2B55}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="79.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="40" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="41" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="158.4">
+      <c r="A3" s="42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="40" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="34" customFormat="1">
+      <c r="A5" s="34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="41" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="45" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="45" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="46"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="45" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="48" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="49"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="49"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="50" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="48" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="51" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="51" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="48" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="51" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="51" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="51" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="51" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="51" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="51" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="51" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2936,7 +3969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2969,11 +4002,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -5092,7 +6125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -5124,11 +6157,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
